--- a/Scripts/Un-Converting_Database.xlsx
+++ b/Scripts/Un-Converting_Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\023\Desktop\محول النصوص ومدخلها\SampleScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\023\Desktop\AST-AsgoreTextTool\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621A303-B47F-452D-B0D9-BA007AC4BB07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCD6D79-F339-4E07-82C2-45BBAE07AD4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4896" yWindow="1548" windowWidth="15168" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -363,9 +363,6 @@
     <t>P</t>
   </si>
   <si>
-    <t>إن كان الخط لا يحوي حرفا معينا موجودا في الخط اترك حقوله فارغة</t>
-  </si>
-  <si>
     <t>مثل (آخر)</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>قد تتضرر الأوامر في النصوص عند إلغاء التحويل</t>
+  </si>
+  <si>
+    <t>إن كان الخط لا يحوي حرفا موجودا هنا فاترك حقوله فارغة</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -814,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>39</v>
@@ -831,13 +831,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>76</v>
@@ -848,16 +848,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -865,16 +865,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -882,16 +882,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -899,16 +899,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -916,13 +916,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -930,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -944,13 +944,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>31</v>
@@ -961,10 +961,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
@@ -978,10 +978,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>33</v>
@@ -995,10 +995,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1012,10 +1012,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
@@ -1046,10 +1046,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>33</v>
@@ -1080,10 +1080,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>40</v>
@@ -1182,10 +1182,10 @@
         <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>50</v>
@@ -1199,10 +1199,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>51</v>
@@ -1216,10 +1216,10 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>52</v>
@@ -1233,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>53</v>
@@ -1505,10 +1505,10 @@
         <v>69</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>107</v>
@@ -1522,10 +1522,10 @@
         <v>70</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>108</v>
@@ -1556,10 +1556,10 @@
         <v>72</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>111</v>
@@ -1573,10 +1573,10 @@
         <v>73</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>111</v>
@@ -1590,10 +1590,10 @@
         <v>74</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>111</v>
@@ -1607,10 +1607,10 @@
         <v>75</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>111</v>
@@ -1621,53 +1621,53 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
